--- a/trials.xlsx
+++ b/trials.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silver\Box\psychopy_git_masters\PLOT_relative\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silver\Box\psychopy_git_masters\PLOT_scan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -373,8 +373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,16 +423,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.1</v>
       </c>
       <c r="C2">
         <v>90</v>
       </c>
       <c r="D2" s="2">
-        <v>-0.36</v>
+        <v>-0.4</v>
       </c>
       <c r="E2" s="2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F2" s="3">
         <v>198</v>
@@ -441,7 +441,7 @@
         <v>0.4</v>
       </c>
       <c r="H2" s="2">
-        <v>-0.18</v>
+        <v>-0.2</v>
       </c>
       <c r="I2" s="3">
         <v>9</v>
@@ -452,25 +452,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7.4999999999999997E-2</v>
+        <v>0.1</v>
       </c>
       <c r="C3">
         <v>162</v>
       </c>
       <c r="D3" s="2">
-        <v>-0.42</v>
+        <v>-0.5</v>
       </c>
       <c r="E3" s="2">
-        <v>-0.18</v>
+        <v>-0.2</v>
       </c>
       <c r="F3" s="3">
         <v>243</v>
       </c>
       <c r="G3" s="2">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="H3" s="2">
-        <v>-0.18</v>
+        <v>-0.2</v>
       </c>
       <c r="I3" s="3">
         <v>9</v>
@@ -481,25 +481,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="C4">
         <v>261</v>
       </c>
       <c r="D4" s="2">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="E4" s="2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F4" s="3">
         <v>153</v>
       </c>
       <c r="G4" s="2">
-        <v>-0.36</v>
+        <v>-0.4</v>
       </c>
       <c r="H4" s="2">
-        <v>-0.18</v>
+        <v>-0.2</v>
       </c>
       <c r="I4" s="3">
         <v>9</v>
@@ -510,25 +510,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="C5">
         <v>144</v>
       </c>
       <c r="D5" s="2">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="E5" s="2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F5" s="3">
         <v>261</v>
       </c>
       <c r="G5" s="2">
-        <v>-0.44</v>
+        <v>-0.5</v>
       </c>
       <c r="H5" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="I5" s="3">
         <v>9</v>
@@ -539,25 +539,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="C6">
         <v>90</v>
       </c>
       <c r="D6" s="2">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="E6" s="2">
-        <v>-0.18</v>
+        <v>-0.2</v>
       </c>
       <c r="F6" s="3">
         <v>198</v>
       </c>
       <c r="G6" s="2">
-        <v>-0.44</v>
+        <v>-0.5</v>
       </c>
       <c r="H6" s="2">
-        <v>-0.18</v>
+        <v>-0.2</v>
       </c>
       <c r="I6" s="3">
         <v>6</v>
@@ -568,25 +568,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7.4999999999999997E-2</v>
+        <v>0.1</v>
       </c>
       <c r="C7">
         <v>228</v>
       </c>
       <c r="D7" s="2">
-        <v>-0.44</v>
+        <v>-0.5</v>
       </c>
       <c r="E7" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="F7" s="3">
         <v>102</v>
       </c>
       <c r="G7" s="2">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="H7" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="I7" s="3">
         <v>6</v>
@@ -597,25 +597,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="C8">
         <v>120</v>
       </c>
       <c r="D8" s="2">
-        <v>-0.38</v>
+        <v>-0.4</v>
       </c>
       <c r="E8" s="2">
-        <v>-0.18</v>
+        <v>-0.2</v>
       </c>
       <c r="F8" s="3">
         <v>168</v>
       </c>
       <c r="G8" s="2">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="H8" s="2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I8" s="3">
         <v>6</v>
@@ -626,25 +626,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7.4999999999999997E-2</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
         <v>108</v>
       </c>
       <c r="D9" s="2">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="E9" s="2">
-        <v>-0.18</v>
+        <v>-0.2</v>
       </c>
       <c r="F9" s="3">
         <v>246</v>
       </c>
       <c r="G9" s="2">
-        <v>-0.34</v>
+        <v>-0.4</v>
       </c>
       <c r="H9" s="2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I9" s="3">
         <v>6</v>
@@ -655,25 +655,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>7.4999999999999997E-2</v>
+        <v>0.1</v>
       </c>
       <c r="C10">
         <v>132</v>
       </c>
       <c r="D10" s="2">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="E10" s="2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F10" s="3">
         <v>162</v>
       </c>
       <c r="G10" s="2">
-        <v>-0.44</v>
+        <v>-0.4</v>
       </c>
       <c r="H10" s="2">
-        <v>-0.18</v>
+        <v>-0.2</v>
       </c>
       <c r="I10" s="3">
         <v>3</v>
@@ -684,25 +684,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="C11">
         <v>237</v>
       </c>
       <c r="D11" s="2">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="E11" s="2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F11" s="3">
         <v>207</v>
       </c>
       <c r="G11" s="2">
-        <v>-0.46</v>
+        <v>-0.5</v>
       </c>
       <c r="H11" s="2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I11" s="3">
         <v>3</v>
@@ -713,7 +713,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="C12">
         <v>120</v>
@@ -722,7 +722,7 @@
         <v>-0.4</v>
       </c>
       <c r="E12" s="2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F12" s="3">
         <v>261</v>
@@ -731,7 +731,7 @@
         <v>0.4</v>
       </c>
       <c r="H12" s="2">
-        <v>-0.18</v>
+        <v>-0.2</v>
       </c>
       <c r="I12" s="3">
         <v>3</v>
@@ -742,25 +742,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7.4999999999999997E-2</v>
+        <v>0.1</v>
       </c>
       <c r="C13">
         <v>267</v>
       </c>
       <c r="D13" s="2">
-        <v>-0.46</v>
+        <v>-0.5</v>
       </c>
       <c r="E13" s="2">
-        <v>-0.18</v>
+        <v>-0.2</v>
       </c>
       <c r="F13" s="3">
         <v>117</v>
       </c>
       <c r="G13" s="2">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="H13" s="2">
-        <v>-0.16</v>
+        <v>-0.2</v>
       </c>
       <c r="I13" s="3">
         <v>3</v>
@@ -771,7 +771,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7.4999999999999997E-2</v>
+        <v>0.1</v>
       </c>
       <c r="C14">
         <v>132</v>
@@ -780,16 +780,16 @@
         <v>0.4</v>
       </c>
       <c r="E14" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="F14" s="3">
         <v>159</v>
       </c>
       <c r="G14" s="2">
-        <v>-0.38</v>
+        <v>-0.4</v>
       </c>
       <c r="H14" s="2">
-        <v>-0.18</v>
+        <v>-0.2</v>
       </c>
       <c r="I14" s="3">
         <v>3</v>
@@ -800,7 +800,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7.4999999999999997E-2</v>
+        <v>0.1</v>
       </c>
       <c r="C15">
         <v>90</v>
@@ -809,16 +809,16 @@
         <v>-0.4</v>
       </c>
       <c r="E15" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="F15" s="3">
         <v>198</v>
       </c>
       <c r="G15" s="2">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="H15" s="2">
-        <v>-0.18</v>
+        <v>-0.2</v>
       </c>
       <c r="I15" s="3">
         <v>9</v>
@@ -829,7 +829,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="C16">
         <v>261</v>
@@ -838,16 +838,16 @@
         <v>0.4</v>
       </c>
       <c r="E16" s="2">
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
       <c r="F16" s="3">
         <v>153</v>
       </c>
       <c r="G16" s="2">
-        <v>-0.42</v>
+        <v>-0.4</v>
       </c>
       <c r="H16" s="2">
-        <v>-0.18</v>
+        <v>-0.2</v>
       </c>
       <c r="I16" s="3">
         <v>9</v>
@@ -858,25 +858,25 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>7.4999999999999997E-2</v>
+        <v>0.1</v>
       </c>
       <c r="C17">
         <v>267</v>
       </c>
       <c r="D17" s="2">
-        <v>-0.44</v>
+        <v>-0.5</v>
       </c>
       <c r="E17" s="2">
-        <v>-0.18</v>
+        <v>-0.2</v>
       </c>
       <c r="F17" s="3">
         <v>117</v>
       </c>
       <c r="G17" s="2">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="H17" s="2">
-        <v>-0.16</v>
+        <v>-0.2</v>
       </c>
       <c r="I17" s="3">
         <v>3</v>
@@ -887,7 +887,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>7.4999999999999997E-2</v>
+        <v>0.1</v>
       </c>
       <c r="C18">
         <v>108</v>
@@ -896,7 +896,7 @@
         <v>0.4</v>
       </c>
       <c r="E18" s="2">
-        <v>-0.16</v>
+        <v>-0.2</v>
       </c>
       <c r="F18" s="3">
         <v>246</v>
@@ -905,7 +905,7 @@
         <v>-0.4</v>
       </c>
       <c r="H18" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="I18" s="3">
         <v>6</v>
@@ -916,25 +916,25 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>7.4999999999999997E-2</v>
+        <v>0.1</v>
       </c>
       <c r="C19">
         <v>162</v>
       </c>
       <c r="D19" s="2">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="E19" s="2">
-        <v>-0.18</v>
+        <v>-0.2</v>
       </c>
       <c r="F19" s="3">
         <v>243</v>
       </c>
       <c r="G19" s="2">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="H19" s="2">
-        <v>-0.18</v>
+        <v>-0.2</v>
       </c>
       <c r="I19" s="3">
         <v>9</v>
@@ -945,25 +945,25 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>7.4999999999999997E-2</v>
+        <v>0.1</v>
       </c>
       <c r="C20">
         <v>222</v>
       </c>
       <c r="D20" s="2">
-        <v>-0.44</v>
+        <v>-0.5</v>
       </c>
       <c r="E20" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="F20" s="3">
         <v>102</v>
       </c>
       <c r="G20" s="2">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="H20" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="I20" s="3">
         <v>6</v>
@@ -974,16 +974,16 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="C21">
         <v>120</v>
       </c>
       <c r="D21" s="2">
-        <v>-0.38</v>
+        <v>-0.4</v>
       </c>
       <c r="E21" s="2">
-        <v>-0.16</v>
+        <v>-0.2</v>
       </c>
       <c r="F21" s="3">
         <v>168</v>
@@ -992,7 +992,7 @@
         <v>0.4</v>
       </c>
       <c r="H21" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="I21" s="3">
         <v>6</v>
@@ -1003,25 +1003,25 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="C22">
         <v>144</v>
       </c>
       <c r="D22" s="2">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="E22" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="F22" s="3">
         <v>261</v>
       </c>
       <c r="G22" s="2">
-        <v>-0.42</v>
+        <v>-0.5</v>
       </c>
       <c r="H22" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="I22" s="3">
         <v>9</v>
@@ -1032,7 +1032,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="C23">
         <v>120</v>
@@ -1041,16 +1041,16 @@
         <v>-0.4</v>
       </c>
       <c r="E23" s="2">
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
       <c r="F23" s="3">
         <v>261</v>
       </c>
       <c r="G23" s="2">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="H23" s="2">
-        <v>-0.18</v>
+        <v>-0.2</v>
       </c>
       <c r="I23" s="3">
         <v>3</v>
@@ -1061,25 +1061,25 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="C24">
         <v>237</v>
       </c>
       <c r="D24" s="2">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="E24" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="F24" s="3">
         <v>207</v>
       </c>
       <c r="G24" s="2">
-        <v>-0.44</v>
+        <v>-0.5</v>
       </c>
       <c r="H24" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="I24" s="3">
         <v>3</v>
@@ -1090,25 +1090,25 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="C25">
         <v>90</v>
       </c>
       <c r="D25" s="2">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="E25" s="2">
-        <v>-0.18</v>
+        <v>-0.2</v>
       </c>
       <c r="F25" s="3">
         <v>198</v>
       </c>
       <c r="G25" s="2">
-        <v>-0.42</v>
+        <v>-0.5</v>
       </c>
       <c r="H25" s="2">
-        <v>-0.18</v>
+        <v>-0.2</v>
       </c>
       <c r="I25" s="3">
         <v>6</v>
